--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.932925459598601</v>
+        <v>2.827837668885347</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.486149793107218</v>
+        <v>5.264433524119849</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-1.462654959891452</v>
+        <v>1.22024092912012</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-0.1632727506298615</v>
+        <v>0.7467839041550572</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-1.441327644990598</v>
+        <v>-0.4442882934808101</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.795572411501371</v>
+        <v>6.644552593284225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.4994476293457728</v>
+        <v>1.788300274309385</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.107500548161823</v>
+        <v>3.627669651577303</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.6698813862783926</v>
+        <v>1.440956029759644</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.07443602115708714</v>
+        <v>-0.3017007008536243</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.1783633696417652</v>
+        <v>-0.2221071518631268</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-0.5608080049891995</v>
+        <v>0.03455257443130133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-0.7148552538148722</v>
+        <v>0.5128611373973024</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-1.094985188685016</v>
+        <v>-0.2840192167653743</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-1.447128858181657</v>
+        <v>-0.09063172833865263</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>4.491338109614906</v>
+        <v>5.916000133499422</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3.970514849793116</v>
+        <v>4.628642218535095</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-1.485798547666051</v>
+        <v>1.587799785098598</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.626705513566363</v>
+        <v>3.7675015848885</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.830354610343954</v>
+        <v>2.914488788198688</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-3.291822412248602</v>
+        <v>-1.916776381668595</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.3983518418631871</v>
+        <v>2.387536181886629</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.626908579814156</v>
+        <v>2.230303027382075</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.030120340385943</v>
+        <v>1.379828535344818</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.611662151512228</v>
+        <v>2.852823663226012</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.80700385842032</v>
+        <v>4.896544577015738</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.902570848650842</v>
+        <v>2.897076781159158</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3.650427759622277</v>
+        <v>3.871279245235404</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.6329316855661071</v>
+        <v>1.726803189121262</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-0.2208297143805993</v>
+        <v>1.162619857328751</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.8327713971867601</v>
+        <v>2.680417660182388</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.2885647262558466</v>
+        <v>1.114951591691815</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3.054133477346288</v>
+        <v>3.04549671087313</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-3.289985846197274</v>
+        <v>-2.206859303437292</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3.911249542370809</v>
+        <v>5.109797288312024</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>3.16160605238236</v>
+        <v>3.742233031264131</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-6.81827097433374</v>
+        <v>-5.830137771531996</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.1770325138048978</v>
+        <v>-2.630151191205621</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1.035701291209978</v>
+        <v>3.164969149790875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.06262888371184605</v>
+        <v>1.473767566635442</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.010170586735781</v>
+        <v>1.473313017739697</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1.044556281307885</v>
+        <v>2.223260341503219</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-2.54400668222704</v>
+        <v>-2.354190252538513</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-2.111348444495709</v>
+        <v>-0.03264299047197605</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.01678507755385</v>
+        <v>2.397636207734966</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
-    <t>Tracker</t>
+    <t>Tracker (yo2y)</t>
   </si>
   <si>
     <t>region</t>
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.827837668885347</v>
+        <v>2.1671702757454</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5.264433524119849</v>
+        <v>1.625197664505373</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.22024092912012</v>
+        <v>-0.04665549321352103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.7467839041550572</v>
+        <v>0.1490943462685079</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.4442882934808101</v>
+        <v>-0.2360112650876101</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6.644552593284225</v>
+        <v>4.862057946978737</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.788300274309385</v>
+        <v>-0.3011407545739919</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3.627669651577303</v>
+        <v>-1.283924175659568</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.440956029759644</v>
+        <v>0.4564075105730314</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-0.3017007008536243</v>
+        <v>0.5763420354802262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-0.2221071518631268</v>
+        <v>0.8353765658615231</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.03455257443130133</v>
+        <v>-1.601956101715696</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5128611373973024</v>
+        <v>-0.3700157448619623</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-0.2840192167653743</v>
+        <v>0.8244682743481446</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-0.09063172833865263</v>
+        <v>-1.5015975485413</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5.916000133499422</v>
+        <v>0.1951306792394414</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4.628642218535095</v>
+        <v>2.364375452557654</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.587799785098598</v>
+        <v>-0.2934629493195784</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3.7675015848885</v>
+        <v>3.422064961259808</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2.914488788198688</v>
+        <v>1.791544115629073</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.916776381668595</v>
+        <v>-1.742411575285152</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.387536181886629</v>
+        <v>2.59763936697488</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2.230303027382075</v>
+        <v>-0.1133723112212714</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.379828535344818</v>
+        <v>-0.02995751157296445</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.852823663226012</v>
+        <v>1.197486676214532</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>4.896544577015738</v>
+        <v>-0.4573004971708761</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2.897076781159158</v>
+        <v>0.5640702240716777</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3.871279245235404</v>
+        <v>2.22365692229558</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.726803189121262</v>
+        <v>0.1594599366311789</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.162619857328751</v>
+        <v>-0.02964236059586067</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2.680417660182388</v>
+        <v>0.896220119308988</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.114951591691815</v>
+        <v>-1.657897841328837</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3.04549671087313</v>
+        <v>0.9911369210335863</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-2.206859303437292</v>
+        <v>-2.770446762758028</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>5.109797288312024</v>
+        <v>1.714710154674082</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>3.742233031264131</v>
+        <v>2.062051974474799</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-5.830137771531996</v>
+        <v>-1.887053965937668</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-2.630151191205621</v>
+        <v>2.317876910701666</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>3.164969149790875</v>
+        <v>-1.83948186189371</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.473767566635442</v>
+        <v>0.5022402988429819</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.473313017739697</v>
+        <v>0.2122299888698054</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2.223260341503219</v>
+        <v>-0.6245013999253812</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-2.354190252538513</v>
+        <v>0.8265600023269259</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.03264299047197605</v>
+        <v>-1.948701503546146</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2.397636207734966</v>
+        <v>1.007856342295899</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
-    <t>Tracker (yo2y)</t>
+    <t>Tracker (yoy)</t>
   </si>
   <si>
     <t>region</t>
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.1671702757454</v>
+        <v>3.908484121746114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.625197664505373</v>
+        <v>3.49541675623648</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.04665549321352103</v>
+        <v>-0.6650800034704307</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.1490943462685079</v>
+        <v>1.330627249506589</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.2360112650876101</v>
+        <v>0.4832060770467272</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.862057946978737</v>
+        <v>5.146606750763016</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-0.3011407545739919</v>
+        <v>0.4513562915988478</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-1.283924175659568</v>
+        <v>-2.32777235919408</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.4564075105730314</v>
+        <v>0.7521627654595964</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.5763420354802262</v>
+        <v>0.1511478595825677</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.8353765658615231</v>
+        <v>3.72052741445954</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-1.601956101715696</v>
+        <v>3.367373865054368</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>-0.3700157448619623</v>
+        <v>1.739557972391292</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.8244682743481446</v>
+        <v>0.7581997545267338</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-1.5015975485413</v>
+        <v>-1.225273275842542</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.1951306792394414</v>
+        <v>0.8106545284343625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.364375452557654</v>
+        <v>4.070580032246474</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-0.2934629493195784</v>
+        <v>-0.9287405017025852</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3.422064961259808</v>
+        <v>3.17535922764336</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.791544115629073</v>
+        <v>1.869953013893944</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.742411575285152</v>
+        <v>-1.238838665448649</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.59763936697488</v>
+        <v>4.284261430106895</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>-0.1133723112212714</v>
+        <v>0.5727068569187921</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>-0.02995751157296445</v>
+        <v>1.201953809778766</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.197486676214532</v>
+        <v>0.6383754963540156</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-0.4573004971708761</v>
+        <v>1.951858808432361</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.5640702240716777</v>
+        <v>1.248793241594615</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2.22365692229558</v>
+        <v>2.421799836104399</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.1594599366311789</v>
+        <v>2.203646978374874</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-0.02964236059586067</v>
+        <v>0.5625542606421119</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.896220119308988</v>
+        <v>2.622314133899972</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-1.657897841328837</v>
+        <v>-0.8983973932658262</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.9911369210335863</v>
+        <v>2.683217327287823</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-2.770446762758028</v>
+        <v>-0.9197264138861128</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.714710154674082</v>
+        <v>3.080121847381534</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.062051974474799</v>
+        <v>2.399339051146687</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-1.887053965937668</v>
+        <v>-3.518171596842812</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.317876910701666</v>
+        <v>1.84502446919721</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-1.83948186189371</v>
+        <v>-2.548304383052435</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.5022402988429819</v>
+        <v>1.752340255336993</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.2122299888698054</v>
+        <v>1.17706963413271</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>-0.6245013999253812</v>
+        <v>-0.1449025118784197</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.8265600023269259</v>
+        <v>0.1817787655996383</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-1.948701503546146</v>
+        <v>-0.6433658289542676</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.007856342295899</v>
+        <v>1.484425335458783</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
-    <t>Tracker (yoy)</t>
+    <t>Projections</t>
   </si>
   <si>
     <t>region</t>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.908484121746114</v>
+        <v>3.59756841973311</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.49541675623648</v>
+        <v>2.842969439621812</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.6650800034704307</v>
+        <v>-0.1994846410191431</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.330627249506589</v>
+        <v>1.764349285409805</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4832060770467272</v>
+        <v>0.4205054311525958</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.146606750763016</v>
+        <v>5.180666451439131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.4513562915988478</v>
+        <v>0.1993323939813996</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-2.32777235919408</v>
+        <v>-2.800473294888617</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.7521627654595964</v>
+        <v>0.9216306742013236</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.1511478595825677</v>
+        <v>0.6325153637128933</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3.72052741445954</v>
+        <v>3.915684692636723</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3.367373865054368</v>
+        <v>0.1799175721276525</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.739557972391292</v>
+        <v>0.735510405326778</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.7581997545267338</v>
+        <v>0.4845381216017408</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-1.225273275842542</v>
+        <v>-1.049892688798781</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.8106545284343625</v>
+        <v>2.14445921753661</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4.070580032246474</v>
+        <v>3.912924407538676</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-0.9287405017025852</v>
+        <v>7.212744145431405</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3.17535922764336</v>
+        <v>2.944823401913066</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.869953013893944</v>
+        <v>1.71740583765343</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.238838665448649</v>
+        <v>-1.466495081977748</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4.284261430106895</v>
+        <v>2.873211248376095</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.5727068569187921</v>
+        <v>-0.08616555865018638</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.201953809778766</v>
+        <v>1.425915108394116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.6383754963540156</v>
+        <v>0.8721628030120554</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.951858808432361</v>
+        <v>0.2375466586470809</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.248793241594615</v>
+        <v>0.4145307257660047</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2.421799836104399</v>
+        <v>-3.238522802700061</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2.203646978374874</v>
+        <v>2.504937324849044</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.5625542606421119</v>
+        <v>0.1036664011654587</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2.622314133899972</v>
+        <v>1.137531134793601</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-0.8983973932658262</v>
+        <v>0.05006666903699664</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2.683217327287823</v>
+        <v>2.031572812200033</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-0.9197264138861128</v>
+        <v>-0.4525704517992502</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3.080121847381534</v>
+        <v>2.642825399079607</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.399339051146687</v>
+        <v>2.370886155113894</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-3.518171596842812</v>
+        <v>-3.424219796499872</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.84502446919721</v>
+        <v>3.134916412968636</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-2.548304383052435</v>
+        <v>-1.949364534000075</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.752340255336993</v>
+        <v>0.9509433064657902</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.17706963413271</v>
+        <v>0.979538120939738</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>-0.1449025118784197</v>
+        <v>-0.6258440758916683</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.1817787655996383</v>
+        <v>0.5682002204307812</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.6433658289542676</v>
+        <v>-0.7960982344107803</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.484425335458783</v>
+        <v>1.447675045120378</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.59756841973311</v>
+        <v>3.746364417497761</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.842969439621812</v>
+        <v>3.565721376876452</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.1994846410191431</v>
+        <v>-0.1936089497284854</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.764349285409805</v>
+        <v>1.402816061780032</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4205054311525958</v>
+        <v>0.3265588871494529</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.180666451439131</v>
+        <v>4.690608819195097</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1993323939813996</v>
+        <v>0.1786697299241968</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-2.800473294888617</v>
+        <v>-1.972952214456003</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.9216306742013236</v>
+        <v>0.1484098796311839</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.6325153637128933</v>
+        <v>0.8541889649277934</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3.915684692636723</v>
+        <v>3.58852667923697</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.1799175721276525</v>
+        <v>4.456852960165447</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.735510405326778</v>
+        <v>0.4834160404694643</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.4845381216017408</v>
+        <v>0.5614593234454457</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-1.049892688798781</v>
+        <v>-1.280469846240873</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.14445921753661</v>
+        <v>2.032870568802458</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3.912924407538676</v>
+        <v>2.311483675272963</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>7.212744145431405</v>
+        <v>0.4028261221621587</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.944823401913066</v>
+        <v>3.453458844093049</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.71740583765343</v>
+        <v>1.851758223059918</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.466495081977748</v>
+        <v>-1.332391656355436</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.873211248376095</v>
+        <v>3.469181602872728</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>-0.08616555865018638</v>
+        <v>0.766988549701253</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.425915108394116</v>
+        <v>0.9991205407346992</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.8721628030120554</v>
+        <v>1.141710559323417</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.2375466586470809</v>
+        <v>0.8167877265267798</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.4145307257660047</v>
+        <v>0.4948838413782131</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-3.238522802700061</v>
+        <v>0.6930447880256319</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2.504937324849044</v>
+        <v>1.120226166780935</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.1036664011654587</v>
+        <v>0.5108788286640964</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.137531134793601</v>
+        <v>1.13013081641764</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.05006666903699664</v>
+        <v>-0.3178034533947161</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2.031572812200033</v>
+        <v>2.165558550519964</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-0.4525704517992502</v>
+        <v>-0.9539004502789439</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.642825399079607</v>
+        <v>3.705091284022766</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.370886155113894</v>
+        <v>2.191131890242493</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-3.424219796499872</v>
+        <v>-4.298239304165586</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3.134916412968636</v>
+        <v>0.7960762210775352</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-1.949364534000075</v>
+        <v>-2.019825519275054</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.9509433064657902</v>
+        <v>1.521688106514052</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.979538120939738</v>
+        <v>1.83343066109547</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>-0.6258440758916683</v>
+        <v>-0.3631054042049442</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.5682002204307812</v>
+        <v>-0.1024445553941655</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.7960982344107803</v>
+        <v>-0.8113948902172874</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.447675045120378</v>
+        <v>1.718103988832587</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.746364417497761</v>
+        <v>3.563786212321607</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.565721376876452</v>
+        <v>2.902664493236928</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.1936089497284854</v>
+        <v>-0.81557956580387</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.402816061780032</v>
+        <v>1.058113728441623</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3265588871494529</v>
+        <v>0.2899250175247836</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.690608819195097</v>
+        <v>5.216727712459779</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1786697299241968</v>
+        <v>0.4536254537706785</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-1.972952214456003</v>
+        <v>-2.541812653996478</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1484098796311839</v>
+        <v>0.488919654750597</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.8541889649277934</v>
+        <v>0.02665202970213443</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3.58852667923697</v>
+        <v>3.313207827526754</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4.456852960165447</v>
+        <v>4.467398983211845</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.4834160404694643</v>
+        <v>0.5893156957256229</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5614593234454457</v>
+        <v>0.2880445738302484</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-1.280469846240873</v>
+        <v>-1.128699379045772</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.032870568802458</v>
+        <v>2.014572365300693</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.311483675272963</v>
+        <v>3.743616241169367</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.4028261221621587</v>
+        <v>5.658575836626478</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3.453458844093049</v>
+        <v>3.221499756571777</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.851758223059918</v>
+        <v>1.910703613536957</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.332391656355436</v>
+        <v>-1.47234207056367</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>3.469181602872728</v>
+        <v>3.119142832856281</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.766988549701253</v>
+        <v>0.2110586451096186</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.9991205407346992</v>
+        <v>1.115253454757958</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.141710559323417</v>
+        <v>1.538574558979233</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.8167877265267798</v>
+        <v>0.02304990923325256</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.4948838413782131</v>
+        <v>1.875101870962026</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.6930447880256319</v>
+        <v>-1.462481735084165</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.120226166780935</v>
+        <v>1.292823660841114</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.5108788286640964</v>
+        <v>0.08884260663306609</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.13013081641764</v>
+        <v>2.667909392957135</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-0.3178034533947161</v>
+        <v>-0.7616078027153694</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2.165558550519964</v>
+        <v>2.167594437220455</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-0.9539004502789439</v>
+        <v>-1.580082915764003</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3.705091284022766</v>
+        <v>2.587927089111797</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.191131890242493</v>
+        <v>2.509972550520057</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-4.298239304165586</v>
+        <v>-2.869212662929466</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.7960762210775352</v>
+        <v>1.066303935563928</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-2.019825519275054</v>
+        <v>-2.083338485392661</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.521688106514052</v>
+        <v>0.7161386618918408</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.83343066109547</v>
+        <v>1.614232641265834</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>-0.3631054042049442</v>
+        <v>-0.5069384277532785</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.1024445553941655</v>
+        <v>-0.1081576340774659</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.8113948902172874</v>
+        <v>-0.7320746266878952</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.718103988832587</v>
+        <v>1.60097007278166</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.563786212321607</v>
+        <v>5.042387820798222</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.902664493236928</v>
+        <v>2.708625985000368</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.81557956580387</v>
+        <v>-0.4105725620739853</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.058113728441623</v>
+        <v>0.9106103210998029</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.2899250175247836</v>
+        <v>0.6074963498806429</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.216727712459779</v>
+        <v>6.149845904031981</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.4536254537706785</v>
+        <v>0.6565787048978589</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-2.541812653996478</v>
+        <v>-0.8848006354566063</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.488919654750597</v>
+        <v>0.1213055553802578</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02665202970213443</v>
+        <v>0.4000275217845628</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3.313207827526754</v>
+        <v>1.880812398952703</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4.467398983211845</v>
+        <v>4.501173730631702</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5893156957256229</v>
+        <v>0.715026501335525</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.2880445738302484</v>
+        <v>0.4355485460540098</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-1.128699379045772</v>
+        <v>-0.7958690322852902</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.014572365300693</v>
+        <v>0.9292703646197609</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3.743616241169367</v>
+        <v>2.65381227431869</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5.658575836626478</v>
+        <v>2.161192804124412</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3.221499756571777</v>
+        <v>2.61940914244807</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.910703613536957</v>
+        <v>1.344239467460606</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.47234207056367</v>
+        <v>-1.792573861142821</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>3.119142832856281</v>
+        <v>2.686778586673721</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.2110586451096186</v>
+        <v>0.1408564709665772</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.115253454757958</v>
+        <v>1.087791372068891</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.538574558979233</v>
+        <v>2.052701721077255</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.02304990923325256</v>
+        <v>-0.3748201252485761</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.875101870962026</v>
+        <v>0.5009871835589097</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-1.462481735084165</v>
+        <v>-1.092771236068713</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.292823660841114</v>
+        <v>1.76589922521555</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.08884260663306609</v>
+        <v>0.1577068610722376</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2.667909392957135</v>
+        <v>1.423701910164099</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-0.7616078027153694</v>
+        <v>-0.7252957726725962</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2.167594437220455</v>
+        <v>2.194912532883242</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-1.580082915764003</v>
+        <v>-1.769952756576754</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.587927089111797</v>
+        <v>1.593826668365295</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.509972550520057</v>
+        <v>2.196083392475656</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-2.869212662929466</v>
+        <v>-3.446668847971335</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.066303935563928</v>
+        <v>3.231462052026557</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-2.083338485392661</v>
+        <v>-1.237436735485042</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.7161386618918408</v>
+        <v>1.903910968888289</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1.614232641265834</v>
+        <v>0.7520960554933565</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>-0.5069384277532785</v>
+        <v>0.5850054927830861</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.1081576340774659</v>
+        <v>0.4967580632736945</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.7320746266878952</v>
+        <v>-1.098721381398238</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.60097007278166</v>
+        <v>1.732322847568146</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.042387820798222</v>
+        <v>3.953121998155296</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.708625985000368</v>
+        <v>2.619822993790466</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.4105725620739853</v>
+        <v>0.45690061070498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.9106103210998029</v>
+        <v>1.82381468442594</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.6074963498806429</v>
+        <v>0.7461219200819214</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6.149845904031981</v>
+        <v>6.569424051069639</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.6565787048978589</v>
+        <v>0.5214022094099935</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-0.8848006354566063</v>
+        <v>-1.321348886459806</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1213055553802578</v>
+        <v>0.8529712037314896</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.4000275217845628</v>
+        <v>0.7899650767144717</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.880812398952703</v>
+        <v>0.7118592494909315</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4.501173730631702</v>
+        <v>3.300557860407993</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.715026501335525</v>
+        <v>1.141934938551814</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.4355485460540098</v>
+        <v>0.8062760878301267</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-0.7958690322852902</v>
+        <v>-0.7748626283809124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.9292703646197609</v>
+        <v>2.7702133313388</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.65381227431869</v>
+        <v>2.432686031978171</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2.161192804124412</v>
+        <v>-1.829499036551174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.61940914244807</v>
+        <v>2.314564158272914</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.344239467460606</v>
+        <v>1.231358471896193</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.792573861142821</v>
+        <v>-1.894663632256022</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.686778586673721</v>
+        <v>2.609595242051643</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.1408564709665772</v>
+        <v>-0.07217699891872709</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.087791372068891</v>
+        <v>0.2615716832868875</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.052701721077255</v>
+        <v>2.36369206410858</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-0.3748201252485761</v>
+        <v>0.9809073581735328</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.5009871835589097</v>
+        <v>1.373796893504986</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-1.092771236068713</v>
+        <v>0.8076474609431061</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.76589922521555</v>
+        <v>1.502907556155408</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.1577068610722376</v>
+        <v>0.1775240027348746</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.423701910164099</v>
+        <v>1.332496568894848</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-0.7252957726725962</v>
+        <v>0.7094690058994324</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2.194912532883242</v>
+        <v>2.364645069825166</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-1.769952756576754</v>
+        <v>-1.525062369879759</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.593826668365295</v>
+        <v>2.887477531114668</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.196083392475656</v>
+        <v>2.593298716719672</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-3.446668847971335</v>
+        <v>-3.698098066500932</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3.231462052026557</v>
+        <v>2.425666074886568</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-1.237436735485042</v>
+        <v>-1.410281843291006</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.903910968888289</v>
+        <v>2.156350035067645</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.7520960554933565</v>
+        <v>0.3588779143979259</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.5850054927830861</v>
+        <v>0.5114228310396429</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.4967580632736945</v>
+        <v>0.01274577414167588</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-1.098721381398238</v>
+        <v>-1.019457838493099</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.732322847568146</v>
+        <v>1.659891612414111</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.953121998155296</v>
+        <v>4.539672900996927</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.619822993790466</v>
+        <v>2.972595178868476</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.45690061070498</v>
+        <v>-0.2898389955339642</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.82381468442594</v>
+        <v>0.767578183714801</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.7461219200819214</v>
+        <v>0.648520157171828</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6.569424051069639</v>
+        <v>5.659764946993207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.5214022094099935</v>
+        <v>0.7042660713006077</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-1.321348886459806</v>
+        <v>-1.147435490643522</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.8529712037314896</v>
+        <v>1.195246907201186</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.7899650767144717</v>
+        <v>0.02318282123892068</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.7118592494909315</v>
+        <v>1.886070745656299</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3.300557860407993</v>
+        <v>3.52533707827718</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.141934938551814</v>
+        <v>0.395997818671967</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.8062760878301267</v>
+        <v>0.5066965032305637</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-0.7748626283809124</v>
+        <v>-0.6640234244301602</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.7702133313388</v>
+        <v>1.238893869632629</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.432686031978171</v>
+        <v>2.16646121674382</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-1.829499036551174</v>
+        <v>-2.478622745562231</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.314564158272914</v>
+        <v>2.488962245037007</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.231358471896193</v>
+        <v>1.596262740107091</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.894663632256022</v>
+        <v>-1.516347281656716</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.609595242051643</v>
+        <v>2.730306709899333</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>-0.07217699891872709</v>
+        <v>0.06733293476095525</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.2615716832868875</v>
+        <v>0.4920364203978345</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.36369206410858</v>
+        <v>1.980994073290687</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.9809073581735328</v>
+        <v>-0.02123965769541547</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.373796893504986</v>
+        <v>1.756646825785513</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.8076474609431061</v>
+        <v>-0.8120026955777737</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.502907556155408</v>
+        <v>1.08165399446305</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.1775240027348746</v>
+        <v>0.6046631557811155</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.332496568894848</v>
+        <v>1.210246916527558</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.7094690058994324</v>
+        <v>-0.540995575268588</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2.364645069825166</v>
+        <v>1.765333890431675</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-1.525062369879759</v>
+        <v>-1.628784055776267</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.887477531114668</v>
+        <v>1.284962803415302</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.593298716719672</v>
+        <v>3.091367707467541</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-3.698098066500932</v>
+        <v>-3.386846613961436</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.425666074886568</v>
+        <v>2.886336582139903</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-1.410281843291006</v>
+        <v>-0.5223540529477377</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2.156350035067645</v>
+        <v>1.661469103479574</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.3588779143979259</v>
+        <v>0.6918486627276899</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.5114228310396429</v>
+        <v>0.1178449071926435</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.01274577414167588</v>
+        <v>1.030831314169234</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-1.019457838493099</v>
+        <v>-1.036707344429788</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.659891612414111</v>
+        <v>1.722870746947036</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.539672900996927</v>
+        <v>4.582322191065558</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.972595178868476</v>
+        <v>2.089219070200143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.2898389955339642</v>
+        <v>-0.01603085560970552</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.767578183714801</v>
+        <v>1.374316350014881</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.648520157171828</v>
+        <v>-0.4154267993932925</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.659764946993207</v>
+        <v>4.961550636458334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.7042660713006077</v>
+        <v>1.510713343055814</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-1.147435490643522</v>
+        <v>-0.5072713764124992</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.195246907201186</v>
+        <v>1.693590988425431</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.02318282123892068</v>
+        <v>-0.6396612088639952</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.886070745656299</v>
+        <v>1.645964067500927</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3.52533707827718</v>
+        <v>0.08125410349746343</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.395997818671967</v>
+        <v>0.1438909239413144</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.5066965032305637</v>
+        <v>0.8672245618129626</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-0.6640234244301602</v>
+        <v>-1.043674428100372</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.238893869632629</v>
+        <v>2.129655368241123</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.16646121674382</v>
+        <v>4.23354576882764</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>-2.478622745562231</v>
+        <v>5.394115522710696</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.488962245037007</v>
+        <v>2.306707431364075</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.596262740107091</v>
+        <v>1.776566356912723</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-1.516347281656716</v>
+        <v>-0.1372280550651972</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.730306709899333</v>
+        <v>2.515441966371346</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.06733293476095525</v>
+        <v>0.1975641268312511</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.4920364203978345</v>
+        <v>0.6752887154686915</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.980994073290687</v>
+        <v>2.203258722518542</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-0.02123965769541547</v>
+        <v>0.9217416214790886</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.756646825785513</v>
+        <v>-0.678200109565974</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-0.8120026955777737</v>
+        <v>0.1843162534397313</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.08165399446305</v>
+        <v>1.670927976134395</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.6046631557811155</v>
+        <v>0.3339151862840284</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.210246916527558</v>
+        <v>1.980374527227924</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-0.540995575268588</v>
+        <v>0.839964596311038</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.765333890431675</v>
+        <v>1.301594294347219</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-1.628784055776267</v>
+        <v>-1.108034726717488</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.284962803415302</v>
+        <v>2.27946310878564</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>3.091367707467541</v>
+        <v>2.060150244495929</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-3.386846613961436</v>
+        <v>-3.691730829096329</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.886336582139903</v>
+        <v>-1.249360973974667</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-0.5223540529477377</v>
+        <v>-2.530273093701507</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.661469103479574</v>
+        <v>1.424296569727579</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.6918486627276899</v>
+        <v>0.9069014417727672</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.1178449071926435</v>
+        <v>0.1670435076743138</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1.030831314169234</v>
+        <v>0.754769900056762</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-1.036707344429788</v>
+        <v>0.03127803191453893</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.722870746947036</v>
+        <v>1.44245840307986</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter_Q1_2021.xlsx
+++ b/Data/quarter_on_quarter_Q1_2021.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.582322191065558</v>
+        <v>5.057229196252111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.089219070200143</v>
+        <v>1.804033840598129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.01603085560970552</v>
+        <v>0.5214661877009474</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.374316350014881</v>
+        <v>0.6544615843363744</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.4154267993932925</v>
+        <v>-0.2681597865626273</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.961550636458334</v>
+        <v>4.398539538353896</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.510713343055814</v>
+        <v>1.571533602938957</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-0.5072713764124992</v>
+        <v>-0.2856153068832579</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.693590988425431</v>
+        <v>0.6066699097436512</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-0.6396612088639952</v>
+        <v>0.2275110373131994</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.645964067500927</v>
+        <v>0.7148223399484177</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.08125410349746343</v>
+        <v>-0.2367276268174567</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.1438909239413144</v>
+        <v>0.5256805211127924</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.8672245618129626</v>
+        <v>0.6761003565644019</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-1.043674428100372</v>
+        <v>-1.016757801210222</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.129655368241123</v>
+        <v>1.608116853574049</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4.23354576882764</v>
+        <v>3.461505628303452</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5.394115522710696</v>
+        <v>-0.6923075208210783</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.306707431364075</v>
+        <v>1.939866017661496</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.776566356912723</v>
+        <v>1.821993165105718</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>-0.1372280550651972</v>
+        <v>-0.6219840896617201</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.515441966371346</v>
+        <v>2.532209653188744</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.1975641268312511</v>
+        <v>0.4953673244173729</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.6752887154686915</v>
+        <v>0.7021449457897067</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.203258722518542</v>
+        <v>2.696694391635868</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.9217416214790886</v>
+        <v>-0.680613906895311</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-0.678200109565974</v>
+        <v>0.4050152369354798</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.1843162534397313</v>
+        <v>-1.814898375965157</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.670927976134395</v>
+        <v>1.728153673705202</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.3339151862840284</v>
+        <v>0.5012428908491406</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.980374527227924</v>
+        <v>1.987598890946063</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.839964596311038</v>
+        <v>0.3796301922301737</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.301594294347219</v>
+        <v>1.321410443246918</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-1.108034726717488</v>
+        <v>-1.180608133621841</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.27946310878564</v>
+        <v>1.380951243901518</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.060150244495929</v>
+        <v>1.215336673785683</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-3.691730829096329</v>
+        <v>-5.730473261560975</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-1.249360973974667</v>
+        <v>-0.2276186689428972</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-2.530273093701507</v>
+        <v>-2.605712883422762</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.424296569727579</v>
+        <v>1.156201094104814</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.9069014417727672</v>
+        <v>0.948141085166343</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.1670435076743138</v>
+        <v>0.02180980579487013</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -867,7 +867,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.754769900056762</v>
+        <v>1.383043108646387</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -875,7 +875,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.03127803191453893</v>
+        <v>0.1224044571207061</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -883,7 +883,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.44245840307986</v>
+        <v>1.416186977867495</v>
       </c>
     </row>
   </sheetData>
